--- a/spreadsheets/Cassiopeia.xlsx
+++ b/spreadsheets/Cassiopeia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1425C3CD-D0DA-4BB7-9690-91A5405752B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CAC502-D41F-4B38-AAA1-932E96AD97D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>Champion</t>
   </si>
@@ -705,7 +705,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1838,13 +1838,15 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="8" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2015,9 +2017,7 @@
       <c r="B15" s="4">
         <v>5</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
